--- a/ipl.xlsx
+++ b/ipl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1610050649206b5/Desktop/DA_26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048BB191E53D05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2AA9C96-3D2B-4413-970A-3FB04EAC956A}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048BB191E53D05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8762DD85-C73F-4CAF-8960-A2CD13ED3E9F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ipl</t>
+  </si>
+  <si>
+    <t>csk</t>
+  </si>
+  <si>
+    <t>mi</t>
   </si>
 </sst>
 </file>
@@ -80,6 +86,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,15 +355,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ipl.xlsx
+++ b/ipl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1610050649206b5/Desktop/DA_26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048BB191E53D05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8762DD85-C73F-4CAF-8960-A2CD13ED3E9F}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048BB191E53D05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38BF0B82-CD01-4111-A1A0-FEE9CF348F82}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ipl</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>mi</t>
+  </si>
+  <si>
+    <t>kkr</t>
   </si>
 </sst>
 </file>
@@ -355,15 +358,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,6 +376,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
